--- a/Problem & Solutions.xlsx
+++ b/Problem & Solutions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Huge object/data/pojo creation</t>
   </si>
@@ -92,12 +92,131 @@
     <t xml:space="preserve">
 </t>
   </si>
+  <si>
+    <t>A Micro service with high SLA, because it has to invoke other many services; each dependent service's SLA added up and become huge</t>
+  </si>
+  <si>
+    <t>-- Let Client display status "Request Accepted", "Processed", "Completed" by reading it from staging table
+-- Try to keep as much dependent data in local (Material View) or Queue etc; Avoid Outbound/Sync instead Inbound-Async</t>
+  </si>
+  <si>
+    <t>Example:  a customer’s address may be used in the customer care system (when the customer calls to change it)
+-- Accounting system (to compute sales tax), 
+-- Shipping system (to label the shipment) 
+-- Billing system (to send an invoice). 
+Many of these systems are going to have their own data stores to store customer related information.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Implementing integration strategy based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>data replication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+-- Build replication functions into the database
+-- Export data into files and re-import them into the other system
+-- MOM to transport data records inside messages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Many business systems require access to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>same data</t>
+    </r>
+  </si>
+  <si>
+    <t>EAI</t>
+  </si>
+  <si>
+    <t>Shared Business Services</t>
+  </si>
+  <si>
+    <t>Example: Many business applications tend to implement redundant functionality. 
+-- Check whether a social-security number is valid, 
+-- Match Address specified postal code 
+-- A item is in stock.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expose a shared business service that is implemented once and available as a service to other systems.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : Replication Data vs Exposed Service - Decision based on 
+-- Frequency of Data changes
+-- amount of control requires over data</t>
+    </r>
+  </si>
+  <si>
+    <t>Service-Oriented Architecture</t>
+  </si>
+  <si>
+    <t>Service : well defined, universally available to serve
+SOA : (.) Service discover (.) Negotiate</t>
+  </si>
+  <si>
+    <t>Distributed Business Process</t>
+  </si>
+  <si>
+    <t>a single business transaction is often spread across many different systems. 
+A service Instead of internally invoke all relevant functions, Co-Ordinate with external application/service to accomplish the transaction.</t>
+  </si>
+  <si>
+    <t>Business-to-Business Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: shipping company may provide a service for customers to compute shipping cost or track shipments. Or a business may use an outside provider to compute sales tax rates. </t>
+  </si>
+  <si>
+    <t>business functions may be from outside suppliers or business partners.
+Integration frequently occurs between business partners</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +243,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -209,53 +334,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -272,6 +352,106 @@
       <left style="thin">
         <color theme="0"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -288,7 +468,7 @@
         <color theme="0"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -300,7 +480,7 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -309,7 +489,7 @@
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -324,48 +504,7 @@
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -378,7 +517,122 @@
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -386,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -397,7 +651,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -406,43 +663,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,6 +861,196 @@
         <a:xfrm>
           <a:off x="9096375" y="2752729"/>
           <a:ext cx="1920240" cy="1051019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3686175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4600575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1146648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="5657851"/>
+          <a:ext cx="914400" cy="1089497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11725275" y="7524750"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1110615</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1174750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="8782050"/>
+          <a:ext cx="1005840" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1170991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="10058403"/>
+          <a:ext cx="1371600" cy="1104313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1659255</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>963256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="11344276"/>
+          <a:ext cx="1554480" cy="877530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,18 +1325,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="30" customWidth="1"/>
     <col min="2" max="2" width="37.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="5" width="73.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="77.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="73.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" customWidth="1"/>
@@ -852,7 +1345,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="28"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -873,13 +1366,13 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -894,19 +1387,19 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -921,19 +1414,19 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -948,21 +1441,21 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -977,19 +1470,19 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1003,14 +1496,18 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="9"/>
+    <row r="7" spans="1:19" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1024,14 +1521,14 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="9"/>
+    <row r="8" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1045,14 +1542,14 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="9"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1066,35 +1563,22 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1108,14 +1592,22 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+    <row r="12" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1129,14 +1621,22 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    <row r="13" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1150,14 +1650,18 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+    <row r="14" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1171,14 +1675,18 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+    <row r="15" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1192,14 +1700,20 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1213,14 +1727,14 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1235,12 +1749,12 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1256,7 +1770,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1277,7 +1791,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1298,7 +1812,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1319,7 +1833,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1340,7 +1854,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1361,7 +1875,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1382,7 +1896,7 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1403,7 +1917,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1424,7 +1938,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1445,7 +1959,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1466,7 +1980,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1487,7 +2001,7 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1508,7 +2022,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1529,7 +2043,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1550,7 +2064,7 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1571,7 +2085,7 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1592,7 +2106,7 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1613,7 +2127,7 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1634,7 +2148,7 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1655,7 +2169,7 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1676,7 +2190,7 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1697,7 +2211,7 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1718,7 +2232,7 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1739,7 +2253,7 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1760,7 +2274,7 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1781,7 +2295,7 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1802,7 +2316,7 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1823,7 +2337,7 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1844,7 +2358,7 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1865,7 +2379,7 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1886,7 +2400,7 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1907,7 +2421,7 @@
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1928,7 +2442,7 @@
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1949,7 +2463,7 @@
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1970,7 +2484,7 @@
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1991,7 +2505,7 @@
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2012,7 +2526,7 @@
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2033,7 +2547,7 @@
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2054,7 +2568,7 @@
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2075,7 +2589,7 @@
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2096,7 +2610,7 @@
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2117,7 +2631,7 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2138,7 +2652,7 @@
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2159,7 +2673,7 @@
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2180,7 +2694,7 @@
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2201,7 +2715,7 @@
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2222,7 +2736,7 @@
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2243,7 +2757,7 @@
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2264,7 +2778,7 @@
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2285,7 +2799,7 @@
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2306,7 +2820,7 @@
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2327,7 +2841,7 @@
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2348,7 +2862,7 @@
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2369,7 +2883,7 @@
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2389,8 +2903,177 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Problem & Solutions.xlsx
+++ b/Problem & Solutions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Huge object/data/pojo creation</t>
   </si>
@@ -211,6 +211,9 @@
     <t>business functions may be from outside suppliers or business partners.
 Integration frequently occurs between business partners</t>
   </si>
+  <si>
+    <t xml:space="preserve">Linear scan on unstructured data, </t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -636,11 +639,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -745,6 +770,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -873,13 +904,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3686175</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4600575</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1146648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -911,13 +942,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1209675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -949,13 +980,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1110615</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1174750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,13 +1018,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>66678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1170991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1025,13 +1056,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1659255</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>963256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1325,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1521,13 +1552,15 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1542,13 +1575,13 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1563,50 +1596,42 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="19"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1625,17 +1650,17 @@
       <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>17</v>
+      <c r="B13" s="18" t="s">
+        <v>15</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>18</v>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>19</v>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1651,14 +1676,18 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="27"/>
       <c r="G14" s="4"/>
@@ -1678,10 +1707,10 @@
     <row r="15" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
@@ -1703,14 +1732,12 @@
     <row r="16" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
       <c r="G16" s="4"/>
@@ -1727,13 +1754,19 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1748,14 +1781,14 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1771,11 +1804,11 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3071,6 +3104,27 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Problem & Solutions.xlsx
+++ b/Problem & Solutions.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2486DB-8293-A64E-BC80-8A1B9267DAD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24600" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Behavioral Que" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Huge object/data/pojo creation</t>
   </si>
@@ -214,11 +216,58 @@
   <si>
     <t xml:space="preserve">Linear scan on unstructured data, </t>
   </si>
+  <si>
+    <t>When you failed delivering a project, how and when did you alert the stake holders, how did they receive it, what did you learn?</t>
+  </si>
+  <si>
+    <t>-- Tracfone : Small Frontend application couple of APIs, to check coverage and steps to take to existing application; small standalone application;  Initial scope of the application was very small and commited to release in couple of weeks; Later went many changes;</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>&gt; All communications with business, kept manager and stackholders in loop
+&gt; Periodically kept updated/talked to manager about progresses
+&gt; Compiled All meetings and histories of requirements and scope got updated; reported formally the project management, the releases at risk and meeting the release date;</t>
+  </si>
+  <si>
+    <t>&gt; Had meeting with all stackholders, Reduced scope and released high level reqs; and commited to deliver subsequent requirements forth coming releases.</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Learnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep updating, often, commit and revisit scope with all stack holders which can be delivered on time.
+</t>
+  </si>
+  <si>
+    <t>Situat</t>
+  </si>
+  <si>
+    <t>-- Tracfone A requirment came, releasing a product for Thanksgiving; Very vague requirement and scope was not defined well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; All communications with business, kept manager and stackholders in loop
+&gt; Periodically kept updated/talked to manager about progresses
+&gt; Compiled All meetings and histories of requirements and scope got updated; reported formally the project management, the releases at risk and meeting the release date;
+</t>
+  </si>
+  <si>
+    <t>Keep updating, often, commit and revisit scope with all stack holders which can be delivered on time.
+&gt; Sensing the risk and challenges to meet release date, well ahead ; 
+------ Try to buy more time; 
+------ Prioritise the deliverables
+------ Add more resources or get right people on team according to urgency
+------ Rollback or Stretch Longer time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,15 +302,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -661,11 +722,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -776,6 +948,78 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,7 +1056,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -865,7 +1115,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -915,7 +1171,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -953,7 +1215,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -991,7 +1259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1029,7 +1303,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1067,7 +1347,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1355,27 +1641,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="73.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="77.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="73.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1396,7 +1682,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="13"/>
       <c r="C2" s="15"/>
@@ -1417,7 +1703,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="18" t="s">
         <v>0</v>
@@ -1444,7 +1730,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="18" t="s">
         <v>3</v>
@@ -1471,7 +1757,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="18" t="s">
         <v>4</v>
@@ -1500,7 +1786,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="18" t="s">
         <v>8</v>
@@ -1527,7 +1813,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
@@ -1552,7 +1838,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="36" t="s">
         <v>27</v>
@@ -1575,7 +1861,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
@@ -1596,7 +1882,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -1617,7 +1903,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1625,7 +1911,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -1646,7 +1932,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
@@ -1675,7 +1961,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1990,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="24" t="s">
         <v>20</v>
@@ -1729,7 +2015,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="24" t="s">
         <v>22</v>
@@ -1754,7 +2040,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
       <c r="B17" s="24" t="s">
         <v>24</v>
@@ -1781,7 +2067,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
@@ -1802,7 +2088,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1823,7 +2109,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1844,7 +2130,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1865,7 +2151,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1886,7 +2172,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1907,7 +2193,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1928,7 +2214,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1949,7 +2235,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1970,7 +2256,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1991,7 +2277,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2012,7 +2298,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2033,7 +2319,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2054,7 +2340,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2075,7 +2361,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2096,7 +2382,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2117,7 +2403,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2138,7 +2424,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2159,7 +2445,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2180,7 +2466,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2201,7 +2487,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2222,7 +2508,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2243,7 +2529,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2264,7 +2550,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2285,7 +2571,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2306,7 +2592,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2327,7 +2613,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2348,7 +2634,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2369,7 +2655,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2390,7 +2676,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2411,7 +2697,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="28"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2432,7 +2718,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="28"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2453,7 +2739,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2474,7 +2760,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2495,7 +2781,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2516,7 +2802,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2537,7 +2823,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="28"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2558,7 +2844,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2579,7 +2865,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2600,7 +2886,7 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="28"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2621,7 +2907,7 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="28"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2642,7 +2928,7 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="28"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2663,7 +2949,7 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="28"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2684,7 +2970,7 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="28"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2705,7 +2991,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="28"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2726,7 +3012,7 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="28"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2747,7 +3033,7 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="28"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2768,7 +3054,7 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="28"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2789,7 +3075,7 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2810,7 +3096,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="28"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2831,7 +3117,7 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="28"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2852,7 +3138,7 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2873,7 +3159,7 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2894,7 +3180,7 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="28"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2915,7 +3201,7 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="28"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2936,7 +3222,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="28"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2957,7 +3243,7 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="28"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2978,7 +3264,7 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="28"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2999,7 +3285,7 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="28"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3020,7 +3306,7 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="28"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3041,7 +3327,7 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="28"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3062,7 +3348,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="28"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3083,7 +3369,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="28"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3104,7 +3390,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="28"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3130,4 +3416,181 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324A6353-FF91-6F47-9C8C-BEB9914D0CD9}">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="48" style="38" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="39" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="2:7" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="2:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="48"/>
+      <c r="C4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="2:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="48"/>
+      <c r="C5" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="2:7" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="48"/>
+      <c r="C6" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+    </row>
+    <row r="7" spans="2:7" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="2:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="2:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="11" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>